--- a/Topic 2/Лекция 2.xlsx
+++ b/Topic 2/Лекция 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myfri\Downloads\Д_Excel.Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6200701-D882-4EC7-8EB7-EE311CA9E9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3BA3E1-8B14-443E-B544-EF3E88BB956D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="384" windowWidth="22764" windowHeight="12072" tabRatio="568" firstSheet="2" activeTab="4" xr2:uid="{ABECCC05-EC47-480D-BF90-7296196067FB}"/>
+    <workbookView minimized="1" xWindow="276" yWindow="384" windowWidth="22764" windowHeight="12072" tabRatio="568" firstSheet="1" activeTab="1" xr2:uid="{ABECCC05-EC47-480D-BF90-7296196067FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -4099,76 +4099,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.34580310907440981</c:v>
+                  <c:v>-2.5062535995202491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14272449293301159</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.074813543572521</c:v>
+                  <c:v>1.3309188475092972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.4506384257212968</c:v>
+                  <c:v>0.46326424642313291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.9433445821009874</c:v>
+                  <c:v>-0.18367398505519361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6821027157241906</c:v>
+                  <c:v>-1.3489558442632874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.98571656376973926</c:v>
+                  <c:v>1.7827462895907595</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.773483698899605</c:v>
+                  <c:v>2.1560941430946046</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.20682789970195359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.17606601228934515</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6646923045812082</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-8.7130314014464472E-2</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6897155646928201</c:v>
+                  <c:v>1.8409064035922298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-6.9021027222553322E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.74329442574539517</c:v>
+                  <c:v>1.2870629197807557</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.14251137628524335</c:v>
+                  <c:v>-0.56677112933331097</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.67366610635608892</c:v>
+                  <c:v>-1.1167487624220591</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8257130204037377</c:v>
+                  <c:v>-0.84438960221872283</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9.1842365174988672E-2</c:v>
+                  <c:v>2.2353766382967999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.33599036397717019</c:v>
+                  <c:v>2.1058272667639044</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.30833242622278689</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.72392921402148303</c:v>
+                  <c:v>-0.56177899578429502</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.14324165086776963</c:v>
+                  <c:v>0.64672833570866084</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1715471724836903</c:v>
+                  <c:v>-0.20637836010343413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5438,76 +5438,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>16.34580310907441</c:v>
+                  <c:v>13.49374640047975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.457275507066988</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.125186456427478</c:v>
+                  <c:v>23.530918847509298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.349361574278705</c:v>
+                  <c:v>16.263264246423134</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4566554178990128</c:v>
+                  <c:v>9.2163260149448067</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.682102715724191</c:v>
+                  <c:v>12.651044155736713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.614283436230261</c:v>
+                  <c:v>16.382746289590759</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.973483698899603</c:v>
+                  <c:v>22.356094143094605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.8</c:v>
+                  <c:v>14.006827899701955</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0646923045812091</c:v>
+                  <c:v>7.2239339877106552</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.912869685985536</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.28971556469282</c:v>
+                  <c:v>14.44090640359223</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.2</c:v>
+                  <c:v>18.130978972777445</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.543294425745396</c:v>
+                  <c:v>13.087062919780756</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2574886237147558</c:v>
+                  <c:v>4.8332288706666882</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.9263338936439105</c:v>
+                  <c:v>9.4832512375779405</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.025713020403735</c:v>
+                  <c:v>15.355610397781277</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.708157634825012</c:v>
+                  <c:v>12.0353766382968</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0640096360228295</c:v>
+                  <c:v>5.5058272667639034</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6916675737772131</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.8760707859785164</c:v>
+                  <c:v>8.0382210042157052</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.056758349132229</c:v>
+                  <c:v>14.84672833570866</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.9715471724836888</c:v>
+                  <c:v>7.5936216398965648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21198,13 +21198,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:colOff>411481</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510541</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -41272,8 +41272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF48935-B04F-406C-B979-8BC89F832760}">
   <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E119"/>
+    <sheetView tabSelected="1" topLeftCell="L3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46143,7 +46143,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:B80"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49164,8 +49164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2869A77A-01B6-4445-B4D2-90B88C269ED6}">
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52670,7 +52670,7 @@
       </c>
       <c r="C63" s="18">
         <f t="shared" ref="C63:C86" ca="1" si="2">RAND()*RANDBETWEEN(-3,3)</f>
-        <v>0.34580310907440981</v>
+        <v>-2.5062535995202491</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
@@ -52679,7 +52679,7 @@
       </c>
       <c r="C64" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.14272449293301159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
@@ -52688,7 +52688,7 @@
       </c>
       <c r="C65" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.074813543572521</v>
+        <v>1.3309188475092972</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
@@ -52697,7 +52697,7 @@
       </c>
       <c r="C66" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4506384257212968</v>
+        <v>0.46326424642313291</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
@@ -52706,7 +52706,7 @@
       </c>
       <c r="C67" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.9433445821009874</v>
+        <v>-0.18367398505519361</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
@@ -52715,7 +52715,7 @@
       </c>
       <c r="C68" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6821027157241906</v>
+        <v>-1.3489558442632874</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
@@ -52724,7 +52724,7 @@
       </c>
       <c r="C69" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.98571656376973926</v>
+        <v>1.7827462895907595</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
@@ -52733,7 +52733,7 @@
       </c>
       <c r="C70" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.773483698899605</v>
+        <v>2.1560941430946046</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
@@ -52742,7 +52742,7 @@
       </c>
       <c r="C71" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.20682789970195359</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
@@ -52751,7 +52751,7 @@
       </c>
       <c r="C72" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6646923045812082</v>
+        <v>-0.17606601228934515</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
@@ -52760,7 +52760,7 @@
       </c>
       <c r="C73" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.7130314014464472E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
@@ -52769,7 +52769,7 @@
       </c>
       <c r="C74" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6897155646928201</v>
+        <v>1.8409064035922298</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
@@ -52778,7 +52778,7 @@
       </c>
       <c r="C75" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-6.9021027222553322E-2</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
@@ -52787,7 +52787,7 @@
       </c>
       <c r="C76" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74329442574539517</v>
+        <v>1.2870629197807557</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
@@ -52796,7 +52796,7 @@
       </c>
       <c r="C77" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.14251137628524335</v>
+        <v>-0.56677112933331097</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
@@ -52814,7 +52814,7 @@
       </c>
       <c r="C79" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.67366610635608892</v>
+        <v>-1.1167487624220591</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
@@ -52823,7 +52823,7 @@
       </c>
       <c r="C80" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8257130204037377</v>
+        <v>-0.84438960221872283</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
@@ -52832,7 +52832,7 @@
       </c>
       <c r="C81" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.1842365174988672E-2</v>
+        <v>2.2353766382967999</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
@@ -52841,7 +52841,7 @@
       </c>
       <c r="C82" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.33599036397717019</v>
+        <v>2.1058272667639044</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
@@ -52850,7 +52850,7 @@
       </c>
       <c r="C83" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.30833242622278689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
@@ -52859,7 +52859,7 @@
       </c>
       <c r="C84" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.72392921402148303</v>
+        <v>-0.56177899578429502</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
@@ -52868,7 +52868,7 @@
       </c>
       <c r="C85" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.14324165086776963</v>
+        <v>0.64672833570866084</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
@@ -52877,7 +52877,7 @@
       </c>
       <c r="C86" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1715471724836903</v>
+        <v>-0.20637836010343413</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
@@ -52899,7 +52899,7 @@
       </c>
       <c r="C92">
         <f ca="1">C7+C35+C63</f>
-        <v>16.34580310907441</v>
+        <v>13.49374640047975</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
@@ -52908,7 +52908,7 @@
       </c>
       <c r="C93">
         <f t="shared" ref="C93:C115" ca="1" si="3">C8+C36+C64</f>
-        <v>16.457275507066988</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
@@ -52917,7 +52917,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>21.125186456427478</v>
+        <v>23.530918847509298</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
@@ -52926,7 +52926,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>14.349361574278705</v>
+        <v>16.263264246423134</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
@@ -52935,7 +52935,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>7.4566554178990128</v>
+        <v>9.2163260149448067</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
@@ -52944,7 +52944,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>15.682102715724191</v>
+        <v>12.651044155736713</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
@@ -52953,7 +52953,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>13.614283436230261</v>
+        <v>16.382746289590759</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
@@ -52962,7 +52962,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>20.973483698899603</v>
+        <v>22.356094143094605</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
@@ -52971,7 +52971,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>13.8</v>
+        <v>14.006827899701955</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
@@ -52980,7 +52980,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0646923045812091</v>
+        <v>7.2239339877106552</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
@@ -52989,7 +52989,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="3"/>
-        <v>11.912869685985536</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
@@ -52998,7 +52998,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="3"/>
-        <v>14.28971556469282</v>
+        <v>14.44090640359223</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
@@ -53007,7 +53007,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="3"/>
-        <v>18.2</v>
+        <v>18.130978972777445</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
@@ -53016,7 +53016,7 @@
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="3"/>
-        <v>12.543294425745396</v>
+        <v>13.087062919780756</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
@@ -53025,7 +53025,7 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2574886237147558</v>
+        <v>4.8332288706666882</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
@@ -53043,7 +53043,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9263338936439105</v>
+        <v>9.4832512375779405</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
@@ -53052,7 +53052,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="3"/>
-        <v>18.025713020403735</v>
+        <v>15.355610397781277</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.3">
@@ -53061,7 +53061,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="3"/>
-        <v>9.708157634825012</v>
+        <v>12.0353766382968</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
@@ -53070,7 +53070,7 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0640096360228295</v>
+        <v>5.5058272667639034</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
@@ -53079,7 +53079,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6916675737772131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
@@ -53088,7 +53088,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8760707859785164</v>
+        <v>8.0382210042157052</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
@@ -53097,7 +53097,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="3"/>
-        <v>14.056758349132229</v>
+        <v>14.84672833570866</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
@@ -53106,7 +53106,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="3"/>
-        <v>8.9715471724836888</v>
+        <v>7.5936216398965648</v>
       </c>
     </row>
   </sheetData>
@@ -53150,7 +53150,7 @@
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">LEFT(CELL("имяфайла"),FIND("\[",CELL("имяфайла"))) &amp; "Data\"</f>
-        <v>C:\Users\myfri\Downloads\Д_Excel.Edited\Data\</v>
+        <v>C:\Users\myfri\Downloads\Data\</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
